--- a/lowe/edd/data/HUMBOHWS.xlsx
+++ b/lowe/edd/data/HUMBOHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,14 +1367,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH51"/>
+  <dimension ref="A1:JI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1384,12 +1384,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,14 +1399,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1414,12 +1414,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2234,11 +2234,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3041,8 +3044,11 @@
       <c r="JH9" s="11">
         <v>59900</v>
       </c>
+      <c r="JI9" s="11">
+        <v>60700</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3845,8 +3851,11 @@
       <c r="JH10" s="11">
         <v>56200</v>
       </c>
+      <c r="JI10" s="11">
+        <v>57600</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4649,8 +4658,11 @@
       <c r="JH11" s="11">
         <v>3700</v>
       </c>
+      <c r="JI11" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5453,8 +5465,11 @@
       <c r="JH12" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6257,8 +6272,11 @@
       <c r="JH13" s="11">
         <v>48700</v>
       </c>
+      <c r="JI13" s="11">
+        <v>49600</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7061,8 +7079,11 @@
       <c r="JH14" s="11">
         <v>1200</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7865,8 +7886,11 @@
       <c r="JH15" s="11">
         <v>47500</v>
       </c>
+      <c r="JI15" s="11">
+        <v>48400</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8669,8 +8693,11 @@
       <c r="JH16" s="11">
         <v>34900</v>
       </c>
+      <c r="JI16" s="11">
+        <v>35200</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9473,8 +9500,11 @@
       <c r="JH17" s="11">
         <v>5300</v>
       </c>
+      <c r="JI17" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10277,8 +10307,11 @@
       <c r="JH18" s="11">
         <v>3000</v>
       </c>
+      <c r="JI18" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11081,8 +11114,11 @@
       <c r="JH19" s="11">
         <v>500</v>
       </c>
+      <c r="JI19" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11885,8 +11921,11 @@
       <c r="JH20" s="11">
         <v>2500</v>
       </c>
+      <c r="JI20" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12689,8 +12728,11 @@
       <c r="JH21" s="11">
         <v>2300</v>
       </c>
+      <c r="JI21" s="11">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13493,8 +13535,11 @@
       <c r="JH22" s="11">
         <v>1100</v>
       </c>
+      <c r="JI22" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14297,8 +14342,11 @@
       <c r="JH23" s="11">
         <v>1100</v>
       </c>
+      <c r="JI23" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15101,8 +15149,11 @@
       <c r="JH24" s="11">
         <v>42200</v>
       </c>
+      <c r="JI24" s="11">
+        <v>43100</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -15905,8 +15956,11 @@
       <c r="JH25" s="11">
         <v>29700</v>
       </c>
+      <c r="JI25" s="11">
+        <v>29900</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16709,8 +16763,11 @@
       <c r="JH26" s="11">
         <v>8800</v>
       </c>
+      <c r="JI26" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17513,8 +17570,11 @@
       <c r="JH27" s="11">
         <v>1100</v>
       </c>
+      <c r="JI27" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18317,8 +18377,11 @@
       <c r="JH28" s="11">
         <v>6600</v>
       </c>
+      <c r="JI28" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19121,8 +19184,11 @@
       <c r="JH29" s="11">
         <v>1100</v>
       </c>
+      <c r="JI29" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -19925,8 +19991,11 @@
       <c r="JH30" s="11">
         <v>300</v>
       </c>
+      <c r="JI30" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20729,8 +20798,11 @@
       <c r="JH31" s="11">
         <v>1700</v>
       </c>
+      <c r="JI31" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21533,8 +21605,11 @@
       <c r="JH32" s="11">
         <v>3700</v>
       </c>
+      <c r="JI32" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22337,8 +22412,11 @@
       <c r="JH33" s="11">
         <v>8400</v>
       </c>
+      <c r="JI33" s="11">
+        <v>8600</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23141,8 +23219,11 @@
       <c r="JH34" s="11">
         <v>4700</v>
       </c>
+      <c r="JI34" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -23945,8 +24026,11 @@
       <c r="JH35" s="11">
         <v>2100</v>
       </c>
+      <c r="JI35" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24749,8 +24833,11 @@
       <c r="JH36" s="11">
         <v>12600</v>
       </c>
+      <c r="JI36" s="11">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25553,8 +25640,11 @@
       <c r="JH37" s="11">
         <v>900</v>
       </c>
+      <c r="JI37" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26357,8 +26447,11 @@
       <c r="JH38" s="11">
         <v>11700</v>
       </c>
+      <c r="JI38" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -27161,8 +27254,11 @@
       <c r="JH39" s="11">
         <v>2800</v>
       </c>
+      <c r="JI39" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -27965,8 +28061,11 @@
       <c r="JH40" s="11">
         <v>1300</v>
       </c>
+      <c r="JI40" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -28769,8 +28868,11 @@
       <c r="JH41" s="11">
         <v>1500</v>
       </c>
+      <c r="JI41" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -29573,8 +29675,11 @@
       <c r="JH42" s="11">
         <v>8900</v>
       </c>
+      <c r="JI42" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>108</v>
       </c>
@@ -29587,7 +29692,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>15</v>
       </c>
@@ -29600,7 +29705,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>109</v>
       </c>
@@ -29613,7 +29718,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -29626,7 +29731,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>111</v>
       </c>

--- a/lowe/edd/data/HUMBOHWS.xlsx
+++ b/lowe/edd/data/HUMBOHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI51"/>
+  <dimension ref="A1:JJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,12 +1384,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,14 +1399,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1414,12 +1414,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2237,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3045,10 +3048,13 @@
         <v>59900</v>
       </c>
       <c r="JI9" s="11">
+        <v>60600</v>
+      </c>
+      <c r="JJ9" s="11">
         <v>60700</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3854,8 +3860,11 @@
       <c r="JI10" s="11">
         <v>57600</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>57800</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4659,10 +4668,13 @@
         <v>3700</v>
       </c>
       <c r="JI11" s="11">
-        <v>3100</v>
+        <v>3000</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>2900</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5468,8 +5480,11 @@
       <c r="JI12" s="12">
         <v>0.05</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6273,10 +6288,13 @@
         <v>48700</v>
       </c>
       <c r="JI13" s="11">
-        <v>49600</v>
+        <v>49500</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>49900</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7082,8 +7100,11 @@
       <c r="JI14" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7887,10 +7908,13 @@
         <v>47500</v>
       </c>
       <c r="JI15" s="11">
-        <v>48400</v>
+        <v>48300</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>48700</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8696,8 +8720,11 @@
       <c r="JI16" s="11">
         <v>35200</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>35200</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9503,8 +9530,11 @@
       <c r="JI17" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10310,8 +10340,11 @@
       <c r="JI18" s="11">
         <v>3000</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11117,8 +11150,11 @@
       <c r="JI19" s="11">
         <v>500</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11924,8 +11960,11 @@
       <c r="JI20" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12731,8 +12770,11 @@
       <c r="JI21" s="11">
         <v>2300</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13538,8 +13580,11 @@
       <c r="JI22" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14345,8 +14390,11 @@
       <c r="JI23" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15152,8 +15200,11 @@
       <c r="JI24" s="11">
         <v>43100</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>43500</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -15959,8 +16010,11 @@
       <c r="JI25" s="11">
         <v>29900</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>30000</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16766,8 +16820,11 @@
       <c r="JI26" s="11">
         <v>9000</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17573,8 +17630,11 @@
       <c r="JI27" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18380,8 +18440,11 @@
       <c r="JI28" s="11">
         <v>6800</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19187,8 +19250,11 @@
       <c r="JI29" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -19994,8 +20060,11 @@
       <c r="JI30" s="11">
         <v>300</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20801,8 +20870,11 @@
       <c r="JI31" s="11">
         <v>1700</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21608,8 +21680,11 @@
       <c r="JI32" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22415,8 +22490,11 @@
       <c r="JI33" s="11">
         <v>8600</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23222,8 +23300,11 @@
       <c r="JI34" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -24029,8 +24110,11 @@
       <c r="JI35" s="11">
         <v>2000</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24836,8 +24920,11 @@
       <c r="JI36" s="11">
         <v>13200</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25643,8 +25730,11 @@
       <c r="JI37" s="11">
         <v>900</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26450,8 +26540,11 @@
       <c r="JI38" s="11">
         <v>12300</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>12700</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -27257,8 +27350,11 @@
       <c r="JI39" s="11">
         <v>3100</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -28064,8 +28160,11 @@
       <c r="JI40" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -28871,8 +28970,11 @@
       <c r="JI41" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -29678,8 +29780,11 @@
       <c r="JI42" s="11">
         <v>9200</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>108</v>
       </c>
@@ -29692,7 +29797,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>15</v>
       </c>
@@ -29705,7 +29810,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>109</v>
       </c>
@@ -29718,7 +29823,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -29731,7 +29836,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>111</v>
       </c>

--- a/lowe/edd/data/HUMBOHWS.xlsx
+++ b/lowe/edd/data/HUMBOHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ51"/>
+  <dimension ref="A1:JL51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,12 +1384,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1399,14 +1399,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1414,12 +1414,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2240,11 +2240,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3053,8 +3059,14 @@
       <c r="JJ9" s="11">
         <v>60700</v>
       </c>
+      <c r="JK9" s="11">
+        <v>60700</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>60200</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3863,8 +3875,14 @@
       <c r="JJ10" s="11">
         <v>57800</v>
       </c>
+      <c r="JK10" s="11">
+        <v>58000</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>57700</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4673,8 +4691,14 @@
       <c r="JJ11" s="11">
         <v>2900</v>
       </c>
+      <c r="JK11" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5483,8 +5507,14 @@
       <c r="JJ12" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6293,8 +6323,14 @@
       <c r="JJ13" s="11">
         <v>49900</v>
       </c>
+      <c r="JK13" s="11">
+        <v>50000</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>49900</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7103,8 +7139,14 @@
       <c r="JJ14" s="11">
         <v>1200</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7913,8 +7955,14 @@
       <c r="JJ15" s="11">
         <v>48700</v>
       </c>
+      <c r="JK15" s="11">
+        <v>48800</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>48700</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8723,8 +8771,14 @@
       <c r="JJ16" s="11">
         <v>35200</v>
       </c>
+      <c r="JK16" s="11">
+        <v>35200</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>35000</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9533,8 +9587,14 @@
       <c r="JJ17" s="11">
         <v>5200</v>
       </c>
+      <c r="JK17" s="11">
+        <v>5100</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10343,8 +10403,14 @@
       <c r="JJ18" s="11">
         <v>3000</v>
       </c>
+      <c r="JK18" s="11">
+        <v>2800</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11153,8 +11219,14 @@
       <c r="JJ19" s="11">
         <v>500</v>
       </c>
+      <c r="JK19" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11963,8 +12035,14 @@
       <c r="JJ20" s="11">
         <v>2500</v>
       </c>
+      <c r="JK20" s="11">
+        <v>2400</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12773,8 +12851,14 @@
       <c r="JJ21" s="11">
         <v>2200</v>
       </c>
+      <c r="JK21" s="11">
+        <v>2200</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13583,8 +13667,14 @@
       <c r="JJ22" s="11">
         <v>1100</v>
       </c>
+      <c r="JK22" s="11">
+        <v>1100</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14393,8 +14483,14 @@
       <c r="JJ23" s="11">
         <v>1100</v>
       </c>
+      <c r="JK23" s="11">
+        <v>1100</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15203,8 +15299,14 @@
       <c r="JJ24" s="11">
         <v>43500</v>
       </c>
+      <c r="JK24" s="11">
+        <v>43700</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>43700</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16013,8 +16115,14 @@
       <c r="JJ25" s="11">
         <v>30000</v>
       </c>
+      <c r="JK25" s="11">
+        <v>30200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>30100</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16823,8 +16931,14 @@
       <c r="JJ26" s="11">
         <v>9000</v>
       </c>
+      <c r="JK26" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17633,8 +17747,14 @@
       <c r="JJ27" s="11">
         <v>1100</v>
       </c>
+      <c r="JK27" s="11">
+        <v>1100</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18443,8 +18563,14 @@
       <c r="JJ28" s="11">
         <v>6900</v>
       </c>
+      <c r="JK28" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>7000</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19253,8 +19379,14 @@
       <c r="JJ29" s="11">
         <v>1000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20063,8 +20195,14 @@
       <c r="JJ30" s="11">
         <v>300</v>
       </c>
+      <c r="JK30" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20873,8 +21011,14 @@
       <c r="JJ31" s="11">
         <v>1700</v>
       </c>
+      <c r="JK31" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21683,8 +21827,14 @@
       <c r="JJ32" s="11">
         <v>3700</v>
       </c>
+      <c r="JK32" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22493,8 +22643,14 @@
       <c r="JJ33" s="11">
         <v>8700</v>
       </c>
+      <c r="JK33" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23303,8 +23459,14 @@
       <c r="JJ34" s="11">
         <v>4600</v>
       </c>
+      <c r="JK34" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -24113,8 +24275,14 @@
       <c r="JJ35" s="11">
         <v>2000</v>
       </c>
+      <c r="JK35" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24923,8 +25091,14 @@
       <c r="JJ36" s="11">
         <v>13500</v>
       </c>
+      <c r="JK36" s="11">
+        <v>13600</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25733,8 +25907,14 @@
       <c r="JJ37" s="11">
         <v>900</v>
       </c>
+      <c r="JK37" s="11">
+        <v>800</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26543,8 +26723,14 @@
       <c r="JJ38" s="11">
         <v>12700</v>
       </c>
+      <c r="JK38" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -27353,8 +27539,14 @@
       <c r="JJ39" s="11">
         <v>3300</v>
       </c>
+      <c r="JK39" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -28163,8 +28355,14 @@
       <c r="JJ40" s="11">
         <v>1800</v>
       </c>
+      <c r="JK40" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -28973,8 +29171,14 @@
       <c r="JJ41" s="11">
         <v>1500</v>
       </c>
+      <c r="JK41" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -29783,8 +29987,14 @@
       <c r="JJ42" s="11">
         <v>9400</v>
       </c>
+      <c r="JK42" s="11">
+        <v>9400</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>108</v>
       </c>
@@ -29797,7 +30007,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>15</v>
       </c>
@@ -29810,7 +30020,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>109</v>
       </c>
@@ -29823,7 +30033,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>110</v>
       </c>
@@ -29836,7 +30046,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>111</v>
       </c>
